--- a/data/2024/slides2024.xlsx
+++ b/data/2024/slides2024.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\EFSPI\webpages\20_workshop\workshop\data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40244403-F77E-4162-9332-D4A43D1FD9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="61"/>
+    <workbookView xWindow="780" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$K$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$K$58</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
   <si>
     <t>Title</t>
   </si>
@@ -45,14 +46,295 @@
     <t>Opening</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Egbert Biesheuvel (Viatris, EFSPI president)</t>
+  </si>
+  <si>
+    <t>Opening remarks</t>
+  </si>
+  <si>
+    <t>Session 1</t>
+  </si>
+  <si>
+    <t>How the pressure to be first, faster, puts pressure on us all and what we can do about it?</t>
+  </si>
+  <si>
+    <t>Jenny Devenport (Roche)</t>
+  </si>
+  <si>
+    <t>Conditional marketing authorisation</t>
+  </si>
+  <si>
+    <t>Eva Skovlund (NOMA, NO; CHMP member)</t>
+  </si>
+  <si>
+    <t>CLL11 -- a trial tailored to answer questions from many stakeholders efficiently</t>
+  </si>
+  <si>
+    <t>Kaspar Rufibach</t>
+  </si>
+  <si>
+    <t>Fast and furious to market across Pharma, is it good for HTA?</t>
+  </si>
+  <si>
+    <t>Karin Cerri and Lilla di Scala (J&amp;J)</t>
+  </si>
+  <si>
+    <t>Short topics</t>
+  </si>
+  <si>
+    <t>Session 2</t>
+  </si>
+  <si>
+    <t>Judith Anzures-Cabrera, Annabelle Monnet, Alex Strasak (Roche)</t>
+  </si>
+  <si>
+    <t>Estimand Strategies for Handling Deaths in Early-Stage Neurological Disorder Studies</t>
+  </si>
+  <si>
+    <t>James Bell (Elderbrook Solutions GmbH), Thomas Drury (GlaxoSmithKline), Tobias Mütze (Novartis Pharma AG), Christian Bressen Pipper (Novo Nordisk A/S), Marian Mitroiu (Biogen International GmbH), Khadija Rerhou Rantell (MHRA), Marcel Wolbers (Roche), David Wright (AstraZeneca)</t>
+  </si>
+  <si>
+    <t>Estimation methods for estimands using the treatment policy strategy</t>
+  </si>
+  <si>
+    <t>Two trials rule versus pooled trials rule</t>
+  </si>
+  <si>
+    <t>Fredrik Öhrn (J&amp;J)</t>
+  </si>
+  <si>
+    <t>Marc Buyse and Samuel Salvaggio (One2Treat)</t>
+  </si>
+  <si>
+    <t>Testing procedure for multiple treatments and multiple outcomes</t>
+  </si>
+  <si>
+    <t>Kostas Sechidis, Mark Baillie, and Bjorn Bornkamp (Novartis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the Quality Standards for Exploratory Analyses? </t>
+  </si>
+  <si>
+    <t>Hong Sun (BMS)</t>
+  </si>
+  <si>
+    <t>Contribution of Sequence</t>
+  </si>
+  <si>
+    <t>Estimands: Implemented, but not fully embraced</t>
+  </si>
+  <si>
+    <t>Clinical Perspectives on Estimand Framework Implementation</t>
+  </si>
+  <si>
+    <t>Implementation of the estimand framework in the regulatory assessment: How it started and how it’s going</t>
+  </si>
+  <si>
+    <t>s6_Sun.pdf</t>
+  </si>
+  <si>
+    <t>s5_Sechidis.pdf</t>
+  </si>
+  <si>
+    <t>s4_Buyse_Salvaggio.pdf</t>
+  </si>
+  <si>
+    <t>s3_Oehrn.pdf</t>
+  </si>
+  <si>
+    <t>s2_Muetze.pdf</t>
+  </si>
+  <si>
+    <t>s1_Anzures.pdf</t>
+  </si>
+  <si>
+    <t>31_Cong.pdf</t>
+  </si>
+  <si>
+    <t>23_Rodwell.pdf</t>
+  </si>
+  <si>
+    <t>22_Paterniti.pdf</t>
+  </si>
+  <si>
+    <t>21_Bretz.pdf</t>
+  </si>
+  <si>
+    <t>13_Rufibach.pdf</t>
+  </si>
+  <si>
+    <t>12_Skovlund.pdf</t>
+  </si>
+  <si>
+    <t>11_Devenport.pdf</t>
+  </si>
+  <si>
+    <t>02_Biesheuvel.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Bretz (Novartis) and Rob Hemmings (Consilium) </t>
+  </si>
+  <si>
+    <t>Miya Okada Paterniti (FDA)</t>
+  </si>
+  <si>
+    <t>Laura Rodwell (Medicines Evaluation Board)</t>
+  </si>
+  <si>
+    <t>Session 3</t>
+  </si>
+  <si>
+    <t>Duanduan Cong (NMPE)</t>
+  </si>
+  <si>
+    <t>Jianhong Pan (NMPE)</t>
+  </si>
+  <si>
+    <t>Hou Yan (Peking University)</t>
+  </si>
+  <si>
+    <t>Xiaoni Liu (Novartis)</t>
+  </si>
+  <si>
+    <t>Opportunities and Challenges in Clinical Research under China's Scientific Regulatory System: Focusing on Innovative Drug Development</t>
+  </si>
+  <si>
+    <t>Implementation of ICH Statistical Guidelines in China: from the Regulatory Perspective</t>
+  </si>
+  <si>
+    <t>Intelligent regulation and statistics promote the modern development of regulatory science in China</t>
+  </si>
+  <si>
+    <t>Joint Efforts for Innovative Drug Development in China</t>
+  </si>
+  <si>
+    <t>Session 4</t>
+  </si>
+  <si>
+    <t>Industry case study. How a patient preference study impacted the approval/SmPC</t>
+  </si>
+  <si>
+    <t>ICH E22 General Considerations for Patient Preference Studies</t>
+  </si>
+  <si>
+    <t>Summary of Product Characteristics, Section 5.1: what can the industry statistician do to ensure patient relevant data is included?</t>
+  </si>
+  <si>
+    <t>Selecting the treatment – my patient and statistician perspectives</t>
+  </si>
+  <si>
+    <t>Brett Hauber (Pfizer)</t>
+  </si>
+  <si>
+    <t>Francesco Pignatti (EMA)</t>
+  </si>
+  <si>
+    <t>Elina Asikanius (fimea, FI; SAWP member) and Mouna Akacha (Novartis)</t>
+  </si>
+  <si>
+    <t>Anna Wiksten (CH)</t>
+  </si>
+  <si>
+    <t>41_Hauber.pdf</t>
+  </si>
+  <si>
+    <t>42_Pignatti.pdf</t>
+  </si>
+  <si>
+    <t>43_Asikanius.pdf</t>
+  </si>
+  <si>
+    <t>51_Paeivike.pdf</t>
+  </si>
+  <si>
+    <t>52_Perttola.pdf</t>
+  </si>
+  <si>
+    <t>53_Schuette.pdf</t>
+  </si>
+  <si>
+    <t>61_Roes.pdf</t>
+  </si>
+  <si>
+    <t>62_Levin.pdf</t>
+  </si>
+  <si>
+    <t>71_Wolfson.pdf</t>
+  </si>
+  <si>
+    <t>72_Azocar.pdf</t>
+  </si>
+  <si>
+    <t>73_Goettsch.pdf</t>
+  </si>
+  <si>
+    <t>Session 5</t>
+  </si>
+  <si>
+    <t>Session 6</t>
+  </si>
+  <si>
+    <t>Session 7</t>
+  </si>
+  <si>
+    <t>General GCP principles with focus on software</t>
+  </si>
+  <si>
+    <t>openstatsware, pharmaverse, validation, and Roche filing experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juha-Pekka Perttola (Roche) </t>
+  </si>
+  <si>
+    <t>Experiences from FDA with open-source submissions</t>
+  </si>
+  <si>
+    <t>Paul Schuette (FDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarianne Päivike (Fimea) </t>
+  </si>
+  <si>
+    <t>Kit Roes (Chair of MWP EMA)</t>
+  </si>
+  <si>
+    <t>Statistical Updates from the United States Food and Drug Administration (FDA) Center for Drug Evaluation and Research (CDER)</t>
+  </si>
+  <si>
+    <t>Greg Levin (FDA)</t>
+  </si>
+  <si>
+    <t>Proper Prior Planning for Pre-specified Post-hoc (Analysis of) PICOs:  How Statisticians can address the opportunities and challenges of EU HTA</t>
+  </si>
+  <si>
+    <t>Lara Wolfson (MSD)</t>
+  </si>
+  <si>
+    <t>Considerations for Methodological Innovation for Indirect Treatment Comparisons in EU HTA</t>
+  </si>
+  <si>
+    <t>Antonio Remiro Azócar (Novo Nordisk)</t>
+  </si>
+  <si>
+    <t>SUSTAIN-HTA, an EU-wide initiative to build a supporting infrastructure to ensure the ongoing implementation of the latest and fit-for-purpose HTA methodologies and tools in practice</t>
+  </si>
+  <si>
+    <t>Wim Goettsch (Utrecht University and SUSTAIN-HTA)</t>
+  </si>
+  <si>
+    <t>EMA Methodology Working Party update -- bridge to the future</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -67,10 +349,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -79,26 +372,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,22 +783,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:C36"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="115.42578125" style="2"/>
     <col min="11" max="16384" width="115.42578125" style="3"/>
@@ -512,7 +811,7 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -531,87 +830,586 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="L2" s="2"/>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D14" s="3"/>
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="3"/>
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D26" s="3"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D27" s="3"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D28" s="3"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D29" s="3"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D30" s="3"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D31" s="3"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="5"/>
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/data/2024/slides2024.xlsx
+++ b/data/2024/slides2024.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\EFSPI\webpages\20_workshop\workshop\data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40244403-F77E-4162-9332-D4A43D1FD9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82DA6D9-1C18-4BD3-BD9D-7B9BD8CAD01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$K$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$K$56</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
   <si>
     <t>Title</t>
   </si>
@@ -323,18 +323,133 @@
   </si>
   <si>
     <t>EMA Methodology Working Party update -- bridge to the future</t>
+  </si>
+  <si>
+    <t>Posters</t>
+  </si>
+  <si>
+    <t>EIWG – reporting sub-team</t>
+  </si>
+  <si>
+    <t>Realizing the benefits of estimands when reporting and communicating study results – some recommendations</t>
+  </si>
+  <si>
+    <t>EIWG – estimands in non-inferiority trials</t>
+  </si>
+  <si>
+    <t>Considerations when Selecting Strategies​ for Intercurrent Events in Non-inferiority Studies</t>
+  </si>
+  <si>
+    <t>EIWG – intercurrent events</t>
+  </si>
+  <si>
+    <t>An Appraisal of the ICH E9(R1) Intercurrent Event Definition with Case Examples</t>
+  </si>
+  <si>
+    <t>Data Voyagers:  Navigating the Fascinating Universe of Medical Affairs Statistics</t>
+  </si>
+  <si>
+    <t>Regulatory ESIG</t>
+  </si>
+  <si>
+    <t>Regulatory Special Interest Group</t>
+  </si>
+  <si>
+    <t>Openstatsware (Software Engineering) ESIG</t>
+  </si>
+  <si>
+    <t>openstatsware – let’s improve open-source statistical software together!</t>
+  </si>
+  <si>
+    <t>Subgroup ESIG</t>
+  </si>
+  <si>
+    <t>Overview of Activities of Subgroup Analysis SIG</t>
+  </si>
+  <si>
+    <t>Causal inference ESIG</t>
+  </si>
+  <si>
+    <t>Introducing the Causal Inference Special Interest Group</t>
+  </si>
+  <si>
+    <t>RWD ESIG</t>
+  </si>
+  <si>
+    <t>Welcome to the Real World Data SIG!</t>
+  </si>
+  <si>
+    <t>HTA ESIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving Patient Access during Phase 2-3 Design – Things to Consider </t>
+  </si>
+  <si>
+    <t>Oncology Estimand WG - Conditional and Marginal Effects Task Force</t>
+  </si>
+  <si>
+    <t>Outcome of Survey on Current Standards and Implementation of Covariate Adjusted and Stratified Analyses.</t>
+  </si>
+  <si>
+    <t>Biomarkers ESIG – mission and updates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuroscience Estimand Working Group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Neuroscience Estimand eSIG - an overview. Scope, objectives and a look into the future. </t>
+  </si>
+  <si>
+    <t>BBS NextGen</t>
+  </si>
+  <si>
+    <t>Today, Tomorrow and the Future: Summary of BBS Next Generation in 2024 and going forward</t>
+  </si>
+  <si>
+    <t>Launch &amp; Lifecycle ESIG</t>
+  </si>
+  <si>
+    <t>Biomarker ESIG</t>
+  </si>
+  <si>
+    <t>44_Wiksten.pdf</t>
+  </si>
+  <si>
+    <t>p02_EWIG_noninf.pdf</t>
+  </si>
+  <si>
+    <t>p03_EWIG_ICE.pdf</t>
+  </si>
+  <si>
+    <t>p04_Launch.pdf</t>
+  </si>
+  <si>
+    <t>p06_openstatsware.pdf</t>
+  </si>
+  <si>
+    <t>p07_subgroup.pdf</t>
+  </si>
+  <si>
+    <t>p08_causal.pdf</t>
+  </si>
+  <si>
+    <t>p09_RWD.pdf</t>
+  </si>
+  <si>
+    <t>p11_oncoestimand.pdf</t>
+  </si>
+  <si>
+    <t>p12_biomarker.pdf</t>
+  </si>
+  <si>
+    <t>p14_nextgen.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -349,21 +464,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -372,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -381,19 +485,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,37 +879,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD58"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="116.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="115.42578125" style="2"/>
-    <col min="11" max="16384" width="115.42578125" style="3"/>
+    <col min="7" max="16384" width="115.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -823,300 +917,298 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="2">
@@ -1130,10 +1222,10 @@
       <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="2">
@@ -1147,10 +1239,10 @@
       <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F18" s="2">
@@ -1164,10 +1256,10 @@
       <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="2">
@@ -1181,13 +1273,13 @@
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="2">
@@ -1201,13 +1293,13 @@
       <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F21" s="2">
@@ -1221,13 +1313,13 @@
       <c r="B22" s="2">
         <v>3</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F22" s="2">
@@ -1241,14 +1333,17 @@
       <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="E23" t="s">
+        <v>129</v>
+      </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1258,13 +1353,13 @@
       <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="2">
@@ -1278,13 +1373,13 @@
       <c r="B25" s="2">
         <v>2</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="2">
@@ -1298,13 +1393,13 @@
       <c r="B26" s="2">
         <v>3</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F26" s="2">
@@ -1318,13 +1413,13 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="4" t="s">
         <v>76</v>
       </c>
       <c r="F27" s="2">
@@ -1338,13 +1433,13 @@
       <c r="B28" s="2">
         <v>2</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="4" t="s">
         <v>77</v>
       </c>
       <c r="F28" s="2">
@@ -1358,13 +1453,13 @@
       <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F29" s="2">
@@ -1378,13 +1473,13 @@
       <c r="B30" s="2">
         <v>2</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F30" s="2">
@@ -1398,16 +1493,284 @@
       <c r="B31" s="2">
         <v>3</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="2">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="2">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="2">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="2">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="2">
+        <v>11</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="2">
+        <v>12</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="2">
+        <v>13</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="2">
+        <v>14</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="2">
         <v>1</v>
       </c>
     </row>

--- a/data/2024/slides2024.xlsx
+++ b/data/2024/slides2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\EFSPI\webpages\20_workshop\workshop\data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82DA6D9-1C18-4BD3-BD9D-7B9BD8CAD01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE3007C-5076-46A2-ADED-1D7F53B762E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -884,7 +884,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/2024/slides2024.xlsx
+++ b/data/2024/slides2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\EFSPI\webpages\20_workshop\workshop\data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE3007C-5076-46A2-ADED-1D7F53B762E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20E1AFD-193A-4515-8F99-7DA042DB2B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3045" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="141">
   <si>
     <t>Title</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>p14_nextgen.pdf</t>
+  </si>
+  <si>
+    <t>p10_HTA.pdf</t>
   </si>
 </sst>
 </file>
@@ -881,10 +884,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1693,8 +1696,11 @@
       <c r="D41" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="E41" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="F41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/2024/slides2024.xlsx
+++ b/data/2024/slides2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\EFSPI\webpages\20_workshop\workshop\data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20E1AFD-193A-4515-8F99-7DA042DB2B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB4A65E-3790-44BB-A510-0B66B6F9D674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3045" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
   <si>
     <t>Title</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>p10_HTA.pdf</t>
+  </si>
+  <si>
+    <t>p13_neuroscience.pdf</t>
   </si>
 </sst>
 </file>
@@ -887,7 +890,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1756,8 +1759,11 @@
       <c r="D44" s="3" t="s">
         <v>124</v>
       </c>
+      <c r="E44" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="F44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/2024/slides2024.xlsx
+++ b/data/2024/slides2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\EFSPI\webpages\20_workshop\workshop\data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB4A65E-3790-44BB-A510-0B66B6F9D674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A218AD-C871-40FD-A962-A12366E1E704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3045" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
   <si>
     <t>Title</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Jianhong Pan (NMPE)</t>
   </si>
   <si>
-    <t>Hou Yan (Peking University)</t>
-  </si>
-  <si>
     <t>Xiaoni Liu (Novartis)</t>
   </si>
   <si>
@@ -449,6 +446,24 @@
   </si>
   <si>
     <t>p13_neuroscience.pdf</t>
+  </si>
+  <si>
+    <t>34_Liu.pdf</t>
+  </si>
+  <si>
+    <t>p01_EWIG_reporting.pdf</t>
+  </si>
+  <si>
+    <t>p05_regulatory.pdf</t>
+  </si>
+  <si>
+    <t>33_Hou.pdf</t>
+  </si>
+  <si>
+    <t>Yan Hou (Peking University)</t>
+  </si>
+  <si>
+    <t>14_Cerri.pdf</t>
   </si>
 </sst>
 </file>
@@ -888,9 +903,9 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1017,8 +1032,11 @@
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1212,7 +1230,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>41</v>
@@ -1232,7 +1250,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -1246,13 +1264,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1263,30 +1284,33 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="F19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -1294,19 +1318,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -1314,19 +1338,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -1334,19 +1358,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -1354,19 +1378,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -1374,19 +1398,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -1394,19 +1418,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -1414,19 +1438,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -1434,19 +1458,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -1454,19 +1478,19 @@
     </row>
     <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -1474,19 +1498,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -1494,19 +1518,19 @@
     </row>
     <row r="31" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -1514,36 +1538,39 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>102</v>
+      <c r="E32" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -1551,19 +1578,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -1571,19 +1598,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="2">
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
@@ -1591,36 +1618,39 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="2">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>109</v>
+      <c r="E36" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="F36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" s="2">
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -1628,19 +1658,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="2">
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
@@ -1648,19 +1678,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="2">
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
@@ -1668,19 +1698,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2">
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
@@ -1688,19 +1718,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="2">
         <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41" s="2">
         <v>1</v>
@@ -1708,19 +1738,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="2">
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -1728,19 +1758,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2">
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -1748,19 +1778,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2">
         <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="E44" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -1768,19 +1798,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2">
         <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F45" s="2">
         <v>1</v>
